--- a/AAII_Financials/Quarterly/SSBP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>SSBP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,40 +744,46 @@
         <v>2100</v>
       </c>
       <c r="E8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G8" s="3">
         <v>2000</v>
       </c>
       <c r="H8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1400</v>
       </c>
       <c r="L8" s="3">
         <v>1600</v>
       </c>
       <c r="M8" s="3">
-        <v>3200</v>
+        <v>1400</v>
       </c>
       <c r="N8" s="3">
         <v>1600</v>
       </c>
       <c r="O8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,13 +1097,15 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
@@ -1061,75 +1114,87 @@
         <v>1000</v>
       </c>
       <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1200</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G18" s="3">
         <v>1000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1100</v>
       </c>
       <c r="H18" s="3">
         <v>1000</v>
       </c>
       <c r="I18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2000</v>
       </c>
       <c r="N18" s="3">
         <v>1000</v>
       </c>
       <c r="O18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,19 +1210,21 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E20" s="3">
         <v>-900</v>
       </c>
       <c r="F20" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G20" s="3">
         <v>-900</v>
@@ -1166,69 +1233,81 @@
         <v>-900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1700</v>
+        <v>-900</v>
       </c>
       <c r="J20" s="3">
         <v>-900</v>
       </c>
       <c r="K20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>200</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,29 +1347,35 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
@@ -1298,24 +1383,30 @@
         <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1336,22 +1427,28 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,13 +1488,19 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
@@ -1406,39 +1509,45 @@
         <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
@@ -1447,34 +1556,40 @@
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,19 +1770,25 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E32" s="3">
         <v>900</v>
       </c>
       <c r="F32" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G32" s="3">
         <v>900</v>
@@ -1658,33 +1797,39 @@
         <v>900</v>
       </c>
       <c r="I32" s="3">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="J32" s="3">
         <v>900</v>
       </c>
       <c r="K32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L32" s="3">
+        <v>900</v>
+      </c>
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -1693,34 +1838,40 @@
         <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,13 +1911,19 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
@@ -1775,80 +1932,92 @@
         <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,90 +2052,104 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2400</v>
       </c>
       <c r="H41" s="3">
         <v>2300</v>
       </c>
       <c r="I41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F42" s="3">
         <v>20300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>20300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>22000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>10100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>7000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>7400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>8500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>17000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>7900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>12100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2236,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2283,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,8 +2330,14 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2177,7 +2392,7 @@
         <v>4300</v>
       </c>
       <c r="E48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="F48" s="3">
         <v>4300</v>
@@ -2186,10 +2401,10 @@
         <v>4300</v>
       </c>
       <c r="H48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="J48" s="3">
         <v>4400</v>
@@ -2198,19 +2413,25 @@
         <v>4400</v>
       </c>
       <c r="L48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N48" s="3">
         <v>4300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2362,19 +2601,25 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>202600</v>
+      </c>
+      <c r="F54" s="3">
         <v>201200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>195900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>195600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>188800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>183500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>172400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>165800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>171900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>158300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>153600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2748,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2507,10 +2768,10 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2524,14 +2785,20 @@
       <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,31 +2838,37 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2612,8 +2885,14 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,8 +2932,14 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>181700</v>
+      </c>
+      <c r="F66" s="3">
         <v>180400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>175200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>175000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>168500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>163400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>152300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>145800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>159800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>146000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>141500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F72" s="3">
         <v>12800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>12700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>12600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>12500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>12300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>12200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>12200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>12100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>12300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>12200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F76" s="3">
         <v>20800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>20600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>20300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>20100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>20100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>20000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>12100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>12300</v>
       </c>
       <c r="M76" s="3">
         <v>12100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>12300</v>
+      </c>
+      <c r="O76" s="3">
+        <v>12100</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,59 +3703,71 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
@@ -3387,34 +3776,40 @@
         <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1000</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,13 +4173,15 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3761,22 +4202,28 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>4600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-12400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-7800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-9100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-9200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>5100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>6500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>5900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>10100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>7400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-6100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>13000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>11800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>9600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>11300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-8100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>10200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>SSBP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,87 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E8" s="3">
         <v>2100</v>
@@ -750,7 +754,7 @@
         <v>2100</v>
       </c>
       <c r="G8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H8" s="3">
         <v>2000</v>
@@ -759,31 +763,34 @@
         <v>2000</v>
       </c>
       <c r="J8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,16 +1125,17 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1000</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
@@ -1120,81 +1147,87 @@
         <v>1000</v>
       </c>
       <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1100</v>
       </c>
       <c r="F18" s="3">
         <v>1100</v>
       </c>
       <c r="G18" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H18" s="3">
         <v>1000</v>
       </c>
       <c r="I18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1000</v>
       </c>
       <c r="Q18" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,22 +1245,23 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
         <v>-900</v>
       </c>
       <c r="F20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-900</v>
       </c>
       <c r="H20" s="3">
         <v>-900</v>
@@ -1239,75 +1273,81 @@
         <v>-900</v>
       </c>
       <c r="K20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>200</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
         <v>200</v>
       </c>
       <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,20 +1393,23 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
@@ -1374,11 +1417,11 @@
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
@@ -1389,19 +1432,22 @@
         <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1455,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1433,22 +1479,25 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>100</v>
-      </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,17 +1543,20 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
@@ -1515,43 +1567,46 @@
         <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
@@ -1562,34 +1617,37 @@
         <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,22 +1843,25 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
         <v>900</v>
       </c>
       <c r="F32" s="3">
+        <v>900</v>
+      </c>
+      <c r="G32" s="3">
         <v>1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>900</v>
       </c>
       <c r="H32" s="3">
         <v>900</v>
@@ -1803,37 +1873,40 @@
         <v>900</v>
       </c>
       <c r="K32" s="3">
+        <v>900</v>
+      </c>
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
@@ -1844,34 +1917,37 @@
         <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,17 +1993,20 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
@@ -1938,86 +2017,92 @@
         <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2140,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E41" s="3">
         <v>6900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1600</v>
       </c>
       <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
+      <c r="P41" s="3">
+        <v>1600</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E42" s="3">
         <v>25100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16700</v>
-      </c>
-      <c r="F42" s="3">
-        <v>20300</v>
       </c>
       <c r="G42" s="3">
         <v>20300</v>
       </c>
       <c r="H42" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I42" s="3">
         <v>22000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,19 +2488,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4300</v>
       </c>
       <c r="G48" s="3">
         <v>4300</v>
@@ -2407,7 +2515,7 @@
         <v>4300</v>
       </c>
       <c r="J48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K48" s="3">
         <v>4400</v>
@@ -2419,19 +2527,22 @@
         <v>4400</v>
       </c>
       <c r="N48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O48" s="3">
         <v>4300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2607,19 +2727,22 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
+      <c r="P52" s="3">
+        <v>500</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>242300</v>
+      </c>
+      <c r="E54" s="3">
         <v>208600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>202600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>201200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>195900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>195600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>188800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>183500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>172400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>165800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>171900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>158300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>153600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2774,7 +2905,7 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2791,14 +2922,17 @@
       <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
+      <c r="P57" s="3">
+        <v>200</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,16 +2978,19 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
@@ -2870,8 +3007,8 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,13 +3078,16 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>17300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>220700</v>
+      </c>
+      <c r="E66" s="3">
         <v>187600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>181700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>180400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>175200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>175000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>168500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>163400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>152300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>145800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>159800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>146000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>141500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E72" s="3">
         <v>13200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>12200</v>
       </c>
       <c r="L72" s="3">
         <v>12200</v>
       </c>
       <c r="M72" s="3">
+        <v>12200</v>
+      </c>
+      <c r="N72" s="3">
         <v>12100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E76" s="3">
         <v>21000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>20100</v>
       </c>
       <c r="K76" s="3">
         <v>20100</v>
       </c>
       <c r="L76" s="3">
+        <v>20100</v>
+      </c>
+      <c r="M76" s="3">
         <v>20000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,69 +3898,75 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
@@ -3782,34 +3977,37 @@
         <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,13 +4025,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
       </c>
       <c r="F89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G89" s="3">
         <v>300</v>
       </c>
       <c r="H89" s="3">
+        <v>300</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1000</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,17 +4395,18 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4208,22 +4429,25 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E100" s="3">
         <v>5800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>6500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2600</v>
+        <v>24500</v>
       </c>
       <c r="E102" s="3">
         <v>2600</v>
       </c>
       <c r="F102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>SSBP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2100</v>
       </c>
       <c r="F8" s="3">
         <v>2100</v>
@@ -757,7 +761,7 @@
         <v>2100</v>
       </c>
       <c r="H8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I8" s="3">
         <v>2000</v>
@@ -766,31 +770,34 @@
         <v>2000</v>
       </c>
       <c r="K8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,19 +1152,20 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
       </c>
       <c r="G17" s="3">
         <v>1000</v>
@@ -1150,84 +1177,90 @@
         <v>1000</v>
       </c>
       <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
       <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1100</v>
       </c>
       <c r="G18" s="3">
         <v>1100</v>
       </c>
       <c r="H18" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I18" s="3">
         <v>1000</v>
       </c>
       <c r="J18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1000</v>
       </c>
       <c r="R18" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,16 +1289,16 @@
         <v>-600</v>
       </c>
       <c r="E20" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="F20" s="3">
         <v>-900</v>
       </c>
       <c r="G20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-900</v>
       </c>
       <c r="I20" s="3">
         <v>-900</v>
@@ -1276,78 +1310,84 @@
         <v>-900</v>
       </c>
       <c r="L20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>200</v>
       </c>
       <c r="G21" s="3">
         <v>200</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>200</v>
       </c>
       <c r="P21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,8 +1436,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1405,14 +1448,14 @@
         <v>600</v>
       </c>
       <c r="E23" s="3">
+        <v>600</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
@@ -1420,11 +1463,11 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
@@ -1435,30 +1478,33 @@
         <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1482,22 +1528,25 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>100</v>
-      </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,20 +1595,23 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
@@ -1570,46 +1622,49 @@
         <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
@@ -1620,34 +1675,37 @@
         <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,16 +1925,16 @@
         <v>600</v>
       </c>
       <c r="E32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F32" s="3">
         <v>900</v>
       </c>
       <c r="G32" s="3">
+        <v>900</v>
+      </c>
+      <c r="H32" s="3">
         <v>1000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>900</v>
       </c>
       <c r="I32" s="3">
         <v>900</v>
@@ -1876,40 +1946,43 @@
         <v>900</v>
       </c>
       <c r="L32" s="3">
+        <v>900</v>
+      </c>
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
@@ -1920,34 +1993,37 @@
         <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,20 +2072,23 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
@@ -2020,89 +2099,95 @@
         <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,108 +2227,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E41" s="3">
         <v>8300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1600</v>
       </c>
       <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
+      <c r="Q41" s="3">
+        <v>1600</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E42" s="3">
         <v>48800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>20300</v>
       </c>
       <c r="H42" s="3">
         <v>20300</v>
       </c>
       <c r="I42" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J42" s="3">
         <v>22000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12100</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2500,13 +2608,13 @@
         <v>4200</v>
       </c>
       <c r="E48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4300</v>
       </c>
       <c r="H48" s="3">
         <v>4300</v>
@@ -2518,7 +2626,7 @@
         <v>4300</v>
       </c>
       <c r="K48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="L48" s="3">
         <v>4400</v>
@@ -2530,19 +2638,22 @@
         <v>4400</v>
       </c>
       <c r="O48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P48" s="3">
         <v>4300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2730,19 +2850,22 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
+      <c r="Q52" s="3">
+        <v>500</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>227400</v>
+      </c>
+      <c r="E54" s="3">
         <v>242300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>208600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>202600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>201200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>195900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>195600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>188800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>183500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>172400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>165800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>171900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>158300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>153600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2908,7 +3039,7 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -2925,14 +3056,17 @@
       <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
+      <c r="Q57" s="3">
+        <v>200</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2992,8 +3129,8 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
@@ -3010,8 +3147,8 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3090,7 +3233,7 @@
         <v>17300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>17300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E66" s="3">
         <v>220700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>187600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>181700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>180400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>175200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>175000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>168500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>163400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>152300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>145800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>159800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>146000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>141500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E72" s="3">
         <v>13600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>12200</v>
       </c>
       <c r="M72" s="3">
         <v>12200</v>
       </c>
       <c r="N72" s="3">
+        <v>12200</v>
+      </c>
+      <c r="O72" s="3">
         <v>12100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E76" s="3">
         <v>21700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>20100</v>
       </c>
       <c r="L76" s="3">
         <v>20100</v>
       </c>
       <c r="M76" s="3">
+        <v>20100</v>
+      </c>
+      <c r="N76" s="3">
         <v>20000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,75 +4090,81 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
@@ -3980,34 +4175,37 @@
         <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,16 +4224,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>200</v>
       </c>
       <c r="G89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H89" s="3">
         <v>300</v>
       </c>
       <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1000</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,20 +4616,21 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4432,22 +4653,25 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E100" s="3">
         <v>33100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>11800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>9600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E102" s="3">
         <v>24500</v>
-      </c>
-      <c r="E102" s="3">
-        <v>2600</v>
       </c>
       <c r="F102" s="3">
         <v>2600</v>
       </c>
       <c r="G102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>SSBP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,10 +755,10 @@
         <v>2100</v>
       </c>
       <c r="E8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F8" s="3">
         <v>2200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2100</v>
       </c>
       <c r="G8" s="3">
         <v>2100</v>
@@ -764,7 +767,7 @@
         <v>2100</v>
       </c>
       <c r="I8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J8" s="3">
         <v>2000</v>
@@ -773,31 +776,34 @@
         <v>2000</v>
       </c>
       <c r="L8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1162,13 +1188,13 @@
         <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
@@ -1180,34 +1206,37 @@
         <v>1000</v>
       </c>
       <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
       <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1244,55 @@
         <v>1200</v>
       </c>
       <c r="E18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1100</v>
       </c>
       <c r="H18" s="3">
         <v>1100</v>
       </c>
       <c r="I18" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J18" s="3">
         <v>1000</v>
       </c>
       <c r="K18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1000</v>
       </c>
       <c r="S18" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,28 +1312,29 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E20" s="3">
         <v>-600</v>
       </c>
       <c r="F20" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="G20" s="3">
         <v>-900</v>
       </c>
       <c r="H20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-900</v>
       </c>
       <c r="J20" s="3">
         <v>-900</v>
@@ -1313,81 +1346,87 @@
         <v>-900</v>
       </c>
       <c r="M20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
-        <v>600</v>
-      </c>
       <c r="F21" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="G21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>200</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J21" s="3">
         <v>200</v>
       </c>
       <c r="K21" s="3">
+        <v>200</v>
+      </c>
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
         <v>200</v>
       </c>
       <c r="Q21" s="3">
+        <v>200</v>
+      </c>
+      <c r="R21" s="3">
         <v>900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,26 +1478,29 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
         <v>600</v>
       </c>
       <c r="F23" s="3">
+        <v>600</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
@@ -1466,11 +1508,11 @@
         <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
@@ -1481,33 +1523,36 @@
         <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>100</v>
-      </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1531,22 +1576,25 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>100</v>
-      </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,23 +1646,26 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
@@ -1625,49 +1676,52 @@
         <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
@@ -1678,34 +1732,37 @@
         <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,28 +1982,31 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E32" s="3">
         <v>600</v>
       </c>
       <c r="F32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G32" s="3">
         <v>900</v>
       </c>
       <c r="H32" s="3">
+        <v>900</v>
+      </c>
+      <c r="I32" s="3">
         <v>1000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>900</v>
       </c>
       <c r="J32" s="3">
         <v>900</v>
@@ -1949,43 +2018,46 @@
         <v>900</v>
       </c>
       <c r="M32" s="3">
+        <v>900</v>
+      </c>
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
@@ -1996,34 +2068,37 @@
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
         <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,23 +2150,26 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
@@ -2102,92 +2180,98 @@
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
         <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1600</v>
       </c>
       <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
+      <c r="R41" s="3">
+        <v>1600</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E42" s="3">
         <v>36300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>48800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>20300</v>
       </c>
       <c r="I42" s="3">
         <v>20300</v>
       </c>
       <c r="J42" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K42" s="3">
         <v>22000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12100</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,25 +2703,28 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>4200</v>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E48" s="3">
         <v>4200</v>
       </c>
       <c r="F48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G48" s="3">
         <v>4300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4300</v>
       </c>
       <c r="I48" s="3">
         <v>4300</v>
@@ -2629,7 +2736,7 @@
         <v>4300</v>
       </c>
       <c r="L48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="M48" s="3">
         <v>4400</v>
@@ -2641,19 +2748,22 @@
         <v>4400</v>
       </c>
       <c r="P48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,13 +2927,16 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>300</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -2853,19 +2972,22 @@
         <v>300</v>
       </c>
       <c r="P52" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
+      <c r="R52" s="3">
+        <v>500</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E54" s="3">
         <v>227400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>242300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>208600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>202600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>201200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>195900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>195600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>188800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>183500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>172400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>165800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>171900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>158300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>153600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,13 +3141,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>300</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3042,7 +3172,7 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3059,14 +3189,17 @@
       <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
+      <c r="R57" s="3">
+        <v>200</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,13 +3251,16 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3132,8 +3268,8 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
@@ -3150,8 +3286,8 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3171,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,19 +3363,22 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17300</v>
+        <v>14300</v>
       </c>
       <c r="E61" s="3">
         <v>17300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>17300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
         <v>205200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>220700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>187600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>181700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>180400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>175200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>175000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>168500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>163400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>152300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>145800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>159800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>146000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>141500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>14000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>12200</v>
       </c>
       <c r="N72" s="3">
         <v>12200</v>
       </c>
       <c r="O72" s="3">
+        <v>12200</v>
+      </c>
+      <c r="P72" s="3">
         <v>12100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E76" s="3">
         <v>22200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>20100</v>
       </c>
       <c r="M76" s="3">
         <v>20100</v>
       </c>
       <c r="N76" s="3">
+        <v>20100</v>
+      </c>
+      <c r="O76" s="3">
         <v>20000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,81 +4281,87 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
@@ -4178,34 +4372,37 @@
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
         <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,22 +4422,23 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4249,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
+        <v>400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>300</v>
       </c>
       <c r="I89" s="3">
         <v>300</v>
       </c>
       <c r="J89" s="3">
+        <v>500</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1000</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,16 +4836,17 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -4656,22 +4876,25 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
         <v>2200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-8700</v>
-      </c>
       <c r="F94" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K94" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="G94" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="R94" s="3">
         <v>-7800</v>
       </c>
-      <c r="N94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15500</v>
       </c>
-      <c r="E100" s="3">
-        <v>33100</v>
-      </c>
       <c r="F100" s="3">
-        <v>5800</v>
+        <v>38900</v>
       </c>
       <c r="G100" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>6500</v>
       </c>
       <c r="K100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L100" s="3">
         <v>5900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>13000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>11800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12800</v>
       </c>
-      <c r="E102" s="3">
-        <v>24500</v>
-      </c>
       <c r="F102" s="3">
+        <v>27100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H102" s="3">
         <v>2600</v>
       </c>
-      <c r="G102" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
-        <v>-2400</v>
-      </c>
       <c r="J102" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K102" s="3">
         <v>11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3200</v>
       </c>
     </row>
